--- a/FPA.xlsx
+++ b/FPA.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="144">
   <si>
     <t>ATRIBUTO</t>
   </si>
@@ -321,9 +321,6 @@
     <t>Editora</t>
   </si>
   <si>
-    <t>Simples</t>
-  </si>
-  <si>
     <t>Entradas Externas</t>
   </si>
   <si>
@@ -402,10 +399,64 @@
     <t>Baixa de Empréstimo</t>
   </si>
   <si>
-    <t>simples</t>
-  </si>
-  <si>
     <t>Trocar Senha</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>status do empréstimo</t>
+  </si>
+  <si>
+    <t>0 - Aberto                  1 - Fechado</t>
+  </si>
+  <si>
+    <t>Consultas Externas</t>
+  </si>
+  <si>
+    <t>Consultar Usuário</t>
+  </si>
+  <si>
+    <t>Consultar Livro</t>
+  </si>
+  <si>
+    <t>Consultar DVD</t>
+  </si>
+  <si>
+    <t>Consultar Periódico</t>
+  </si>
+  <si>
+    <t>Consultar Empréstimo</t>
+  </si>
+  <si>
+    <t>Consultar Reserva</t>
+  </si>
+  <si>
+    <t>Consultar Editora</t>
+  </si>
+  <si>
+    <t>Listagem de Usuários</t>
+  </si>
+  <si>
+    <t>Listagem de DVDs</t>
+  </si>
+  <si>
+    <t>Listagem de Livros</t>
+  </si>
+  <si>
+    <t>Listagem de Periódicos</t>
+  </si>
+  <si>
+    <t>Listagem de Empréstimos</t>
+  </si>
+  <si>
+    <t>Listagem de Reservas</t>
+  </si>
+  <si>
+    <t>Listagem de Editora</t>
   </si>
 </sst>
 </file>
@@ -520,17 +571,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -812,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H77"/>
+  <dimension ref="B2:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F65" sqref="F65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -830,43 +881,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="12" t="s">
+      <c r="C3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="16"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="10" t="s">
         <v>7</v>
       </c>
@@ -947,7 +998,7 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <f>COUNTA(B5:B8)</f>
         <v>4</v>
       </c>
@@ -959,43 +1010,43 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="12" t="s">
+      <c r="C12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
       <c r="G13" s="10" t="s">
         <v>7</v>
       </c>
@@ -1144,49 +1195,49 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="14">
+      <c r="B22" s="13">
         <f>COUNTA(B14:B21)</f>
         <v>8</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="12" t="s">
+      <c r="B24" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="12" t="s">
+      <c r="C25" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
       <c r="G26" s="10" t="s">
         <v>7</v>
       </c>
@@ -1231,49 +1282,49 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="14">
+      <c r="B29" s="13">
         <f>COUNTA(B27:B28)</f>
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+      <c r="B32" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="12" t="s">
+      <c r="C32" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
       <c r="G33" s="10" t="s">
         <v>7</v>
       </c>
@@ -1384,49 +1435,49 @@
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" s="14">
+      <c r="B40" s="13">
         <f>COUNTA(B34:B39)</f>
         <v>6</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="12" t="s">
+      <c r="C43" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="12"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
       <c r="G44" s="10" t="s">
         <v>7</v>
       </c>
@@ -1537,49 +1588,49 @@
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" s="14">
+      <c r="B51" s="13">
         <f>COUNTA(B45:B50)</f>
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
+      <c r="C53" s="16"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="12" t="s">
+      <c r="B54" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="12" t="s">
+      <c r="C54" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E54" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G54" s="12" t="s">
+      <c r="G54" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="12"/>
+      <c r="H54" s="16"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
       <c r="G55" s="10" t="s">
         <v>7</v>
       </c>
@@ -1735,122 +1786,124 @@
     </row>
     <row r="64" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="11" t="s">
+      <c r="C65" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
+      <c r="D65" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2" t="s">
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" s="14">
-        <f>COUNTA(B56:B64)</f>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" s="13">
+        <f>COUNTA(B56:B65)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="G69" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="H69" s="16"/>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="12"/>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="H68" s="12"/>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70" s="2" t="s">
+      <c r="C71" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="D71" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2" t="s">
+      <c r="F71" s="2"/>
+      <c r="G71" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H70" s="2"/>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C71" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="H71" s="2"/>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B72" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
@@ -1860,7 +1913,7 @@
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C73" s="11" t="s">
         <v>13</v>
@@ -1869,7 +1922,7 @@
         <v>71</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
@@ -1879,7 +1932,7 @@
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C74" s="11" t="s">
         <v>13</v>
@@ -1888,7 +1941,7 @@
         <v>71</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
@@ -1898,24 +1951,26 @@
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>15</v>
+        <v>71</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-    </row>
-    <row r="76" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H75" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="C76" s="11" t="s">
         <v>48</v>
@@ -1924,20 +1979,79 @@
         <v>15</v>
       </c>
       <c r="E76" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" s="14">
-        <f>COUNTA(B70:B76)</f>
+    <row r="77" spans="2:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="B77" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" s="13">
+        <f>COUNTA(B71:B77)</f>
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B68:H68"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:C70"/>
+    <mergeCell ref="D69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:H69"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:H12"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="B3:B4"/>
@@ -1945,48 +2059,6 @@
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="B67:H67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:H68"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1995,10 +2067,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E39"/>
+  <dimension ref="B3:E57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2010,29 +2082,29 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>92</v>
       </c>
       <c r="C5" s="2">
@@ -2042,12 +2114,10 @@
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="2">
@@ -2057,12 +2127,10 @@
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="2">
@@ -2072,12 +2140,10 @@
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="2">
@@ -2087,12 +2153,10 @@
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>98</v>
-      </c>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="2">
@@ -2102,276 +2166,429 @@
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="2">
+        <f>BaseDados!B66</f>
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="2">
+        <f>BaseDados!B78</f>
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="17" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="C10" s="2">
-        <f>BaseDados!B65</f>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+    </row>
+    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="2">
         <v>9</v>
       </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="2">
-        <f>BaseDados!B77</f>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="2">
+        <v>9</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="2">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" s="2">
         <v>7</v>
       </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="2">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="C30" s="2">
+        <v>3</v>
+      </c>
+      <c r="D30" s="2">
+        <v>1</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="2">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C33" s="2">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>3</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="C34" s="2">
+        <v>8</v>
+      </c>
+      <c r="D34" s="2">
+        <v>3</v>
+      </c>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="2">
+        <v>6</v>
+      </c>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="C37" s="2">
+        <v>6</v>
+      </c>
+      <c r="D37" s="2">
+        <v>3</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="C43" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="D43" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="17" t="s">
+      <c r="E43" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="15">
-        <v>6</v>
-      </c>
-      <c r="D17" s="15">
-        <v>1</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="15">
-        <v>3</v>
-      </c>
-      <c r="D18" s="15">
-        <v>1</v>
-      </c>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="15">
-        <v>6</v>
-      </c>
-      <c r="D19" s="15">
-        <v>1</v>
-      </c>
-      <c r="E19" s="15"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="15">
-        <v>9</v>
-      </c>
-      <c r="D20" s="15">
-        <v>2</v>
-      </c>
-      <c r="E20" s="15"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="15">
-        <v>3</v>
-      </c>
-      <c r="D21" s="15">
-        <v>2</v>
-      </c>
-      <c r="E21" s="15"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="C22" s="15">
-        <v>9</v>
-      </c>
-      <c r="D22" s="15">
-        <v>2</v>
-      </c>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>143</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B42:E42"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/FPA.xlsx
+++ b/FPA.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="BaseDados" sheetId="1" r:id="rId1"/>
+    <sheet name="Arquivos" sheetId="1" r:id="rId1"/>
     <sheet name="Contagem" sheetId="2" r:id="rId2"/>
+    <sheet name="PontosNãoAjustados" sheetId="3" r:id="rId3"/>
+    <sheet name="Ajuste" sheetId="4" r:id="rId4"/>
+    <sheet name="Esforço-Prazo" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="191">
   <si>
     <t>ATRIBUTO</t>
   </si>
@@ -321,6 +324,9 @@
     <t>Editora</t>
   </si>
   <si>
+    <t>Simples</t>
+  </si>
+  <si>
     <t>Entradas Externas</t>
   </si>
   <si>
@@ -399,6 +405,9 @@
     <t>Baixa de Empréstimo</t>
   </si>
   <si>
+    <t>simples</t>
+  </si>
+  <si>
     <t>Trocar Senha</t>
   </si>
   <si>
@@ -411,9 +420,6 @@
     <t>status do empréstimo</t>
   </si>
   <si>
-    <t>0 - Aberto                  1 - Fechado</t>
-  </si>
-  <si>
     <t>Consultas Externas</t>
   </si>
   <si>
@@ -457,13 +463,151 @@
   </si>
   <si>
     <t>Listagem de Editora</t>
+  </si>
+  <si>
+    <t>Detalhes do Livro</t>
+  </si>
+  <si>
+    <t>Detalhes do Usuário</t>
+  </si>
+  <si>
+    <t>Detalhes do Períódico</t>
+  </si>
+  <si>
+    <t>Detalhes do DVD</t>
+  </si>
+  <si>
+    <t>Detalhes do Empréstimo</t>
+  </si>
+  <si>
+    <t>Detalhes da Reserva</t>
+  </si>
+  <si>
+    <t>Detalhes da Editora</t>
+  </si>
+  <si>
+    <t>0 - Emprestado            1 - Devolvido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saídas Externas </t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Cálculo de Pontos de Função não ajustados</t>
+  </si>
+  <si>
+    <t>Tipo de Função</t>
+  </si>
+  <si>
+    <t>Complexidade Funcional</t>
+  </si>
+  <si>
+    <t>Peso</t>
+  </si>
+  <si>
+    <t>Total de Complexidade</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Arquivo Interno</t>
+  </si>
+  <si>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>Consultas</t>
+  </si>
+  <si>
+    <t>Saída Externa</t>
+  </si>
+  <si>
+    <t>Médio</t>
+  </si>
+  <si>
+    <t>Complexo</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>médio</t>
+  </si>
+  <si>
+    <t>complexo</t>
+  </si>
+  <si>
+    <t>Arquivo Externo</t>
+  </si>
+  <si>
+    <t>TOTAL PONTOS NÃO AJUSTADOS</t>
+  </si>
+  <si>
+    <t>Características do Fator de Ajuste</t>
+  </si>
+  <si>
+    <t>Características da Aplicação</t>
+  </si>
+  <si>
+    <t>Níveis de Influência</t>
+  </si>
+  <si>
+    <t>Comunicação de Dados</t>
+  </si>
+  <si>
+    <t>Funções Distribuídas</t>
+  </si>
+  <si>
+    <t>Carga de Configuração</t>
+  </si>
+  <si>
+    <t>Volume de Transações</t>
+  </si>
+  <si>
+    <t>Entrada de Dados Online</t>
+  </si>
+  <si>
+    <t>Interfaces com o usuário</t>
+  </si>
+  <si>
+    <t>Atualização online</t>
+  </si>
+  <si>
+    <t>Processamento Complexo</t>
+  </si>
+  <si>
+    <t>Facilidade de Implantação</t>
+  </si>
+  <si>
+    <t>Facilidade Operacional</t>
+  </si>
+  <si>
+    <t>Múltiplos Locais</t>
+  </si>
+  <si>
+    <t>Facilidade de Mudança</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reutilização </t>
+  </si>
+  <si>
+    <t>Fator de Ajuste</t>
+  </si>
+  <si>
+    <t>Total de Pontos Ajustados (FPA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,8 +634,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -510,8 +662,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -534,11 +698,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -574,20 +775,192 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -865,8 +1238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -881,43 +1254,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="10" t="s">
         <v>7</v>
       </c>
@@ -1010,43 +1383,43 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="16" t="s">
+      <c r="F12" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="16" t="s">
+      <c r="G12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="16"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
       <c r="G13" s="10" t="s">
         <v>7</v>
       </c>
@@ -1201,43 +1574,43 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="16" t="s">
+      <c r="C25" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="16" t="s">
+      <c r="G25" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="16"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
       <c r="G26" s="10" t="s">
         <v>7</v>
       </c>
@@ -1288,43 +1661,43 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="16" t="s">
+      <c r="C32" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="16" t="s">
+      <c r="E32" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="16" t="s">
+      <c r="F32" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="16" t="s">
+      <c r="G32" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="16"/>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="B33" s="15"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
       <c r="G33" s="10" t="s">
         <v>7</v>
       </c>
@@ -1441,43 +1814,43 @@
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="16"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="16" t="s">
+      <c r="C43" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="16" t="s">
+      <c r="F43" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="16" t="s">
+      <c r="G43" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="16"/>
+      <c r="H43" s="15"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
       <c r="G44" s="10" t="s">
         <v>7</v>
       </c>
@@ -1594,43 +1967,43 @@
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="16" t="s">
+      <c r="B53" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="16"/>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="16"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="16" t="s">
+      <c r="B54" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="16" t="s">
+      <c r="C54" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="16" t="s">
+      <c r="E54" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="16" t="s">
+      <c r="F54" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G54" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="16"/>
+      <c r="H54" s="15"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
-      <c r="F55" s="16"/>
+      <c r="B55" s="15"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
       <c r="G55" s="10" t="s">
         <v>7</v>
       </c>
@@ -1786,19 +2159,19 @@
     </row>
     <row r="64" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B64" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>15</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -1829,43 +2202,43 @@
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="16" t="s">
+      <c r="B68" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="16" t="s">
+      <c r="B69" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="16" t="s">
+      <c r="C69" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E69" s="16" t="s">
+      <c r="E69" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F69" s="16" t="s">
+      <c r="F69" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="16" t="s">
+      <c r="G69" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H69" s="16"/>
+      <c r="H69" s="15"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
+      <c r="B70" s="15"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
       <c r="G70" s="10" t="s">
         <v>7</v>
       </c>
@@ -2067,10 +2440,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E57"/>
+  <dimension ref="B3:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E48" activeCellId="3" sqref="E62 E59 E55 E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2082,24 +2455,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="17" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2108,117 +2481,131 @@
         <v>92</v>
       </c>
       <c r="C5" s="2">
-        <f>BaseDados!B9</f>
+        <f>Arquivos!B9</f>
         <v>4</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>93</v>
       </c>
       <c r="C6" s="2">
-        <f>BaseDados!B22</f>
+        <f>Arquivos!B22</f>
         <v>8</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="E6" s="2"/>
+      <c r="E6" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>97</v>
       </c>
       <c r="C7" s="2">
-        <f>BaseDados!B29</f>
+        <f>Arquivos!B29</f>
         <v>2</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>94</v>
       </c>
       <c r="C8" s="2">
-        <f>BaseDados!B40</f>
+        <f>Arquivos!B40</f>
         <v>6</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="2"/>
+      <c r="E8" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>54</v>
       </c>
       <c r="C9" s="2">
-        <f>BaseDados!B51</f>
+        <f>Arquivos!B51</f>
         <v>6</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
       </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="2">
-        <f>BaseDados!B66</f>
+        <f>Arquivos!B66</f>
         <v>10</v>
       </c>
       <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" s="2"/>
+      <c r="E10" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>95</v>
       </c>
       <c r="C11" s="2">
-        <f>BaseDados!B78</f>
+        <f>Arquivos!B78</f>
         <v>7</v>
       </c>
       <c r="D11" s="2">
         <v>1</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
+      <c r="B15" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C16" s="15" t="s">
+      <c r="B16" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="C16" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="D16" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E16" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C17" s="2">
         <v>6</v>
@@ -2226,11 +2613,13 @@
       <c r="D17" s="2">
         <v>1</v>
       </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C18" s="2">
         <v>3</v>
@@ -2238,11 +2627,13 @@
       <c r="D18" s="2">
         <v>1</v>
       </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C19" s="2">
         <v>6</v>
@@ -2250,11 +2641,13 @@
       <c r="D19" s="2">
         <v>1</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C20" s="2">
         <v>9</v>
@@ -2262,11 +2655,13 @@
       <c r="D20" s="2">
         <v>2</v>
       </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" s="2">
         <v>3</v>
@@ -2274,11 +2669,13 @@
       <c r="D21" s="2">
         <v>2</v>
       </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C22" s="2">
         <v>9</v>
@@ -2286,11 +2683,13 @@
       <c r="D22" s="2">
         <v>2</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C23" s="2">
         <v>3</v>
@@ -2298,11 +2697,13 @@
       <c r="D23" s="2">
         <v>1</v>
       </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C24" s="2">
         <v>3</v>
@@ -2310,11 +2711,13 @@
       <c r="D24" s="2">
         <v>1</v>
       </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C25" s="2">
         <v>3</v>
@@ -2322,11 +2725,13 @@
       <c r="D25" s="2">
         <v>1</v>
       </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C26" s="2">
         <v>7</v>
@@ -2334,11 +2739,13 @@
       <c r="D26" s="2">
         <v>1</v>
       </c>
-      <c r="E26" s="2"/>
+      <c r="E26" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C27" s="2">
         <v>3</v>
@@ -2346,11 +2753,13 @@
       <c r="D27" s="2">
         <v>1</v>
       </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C28" s="2">
         <v>7</v>
@@ -2358,11 +2767,13 @@
       <c r="D28" s="2">
         <v>1</v>
       </c>
-      <c r="E28" s="2"/>
+      <c r="E28" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C29" s="2">
         <v>7</v>
@@ -2370,11 +2781,13 @@
       <c r="D29" s="2">
         <v>1</v>
       </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C30" s="2">
         <v>3</v>
@@ -2382,11 +2795,13 @@
       <c r="D30" s="2">
         <v>1</v>
       </c>
-      <c r="E30" s="2"/>
+      <c r="E30" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C31" s="2">
         <v>7</v>
@@ -2394,11 +2809,13 @@
       <c r="D31" s="2">
         <v>1</v>
       </c>
-      <c r="E31" s="2"/>
+      <c r="E31" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C32" s="2">
         <v>8</v>
@@ -2406,11 +2823,13 @@
       <c r="D32" s="2">
         <v>3</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C33" s="2">
         <v>3</v>
@@ -2418,11 +2837,13 @@
       <c r="D33" s="2">
         <v>3</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="14" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C34" s="2">
         <v>8</v>
@@ -2430,11 +2851,13 @@
       <c r="D34" s="2">
         <v>3</v>
       </c>
-      <c r="E34" s="2"/>
+      <c r="E34" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C35" s="2">
         <v>6</v>
@@ -2442,11 +2865,13 @@
       <c r="D35" s="2">
         <v>3</v>
       </c>
-      <c r="E35" s="2"/>
+      <c r="E35" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C36" s="2">
         <v>3</v>
@@ -2454,11 +2879,13 @@
       <c r="D36" s="2">
         <v>3</v>
       </c>
-      <c r="E36" s="2"/>
+      <c r="E36" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C37" s="2">
         <v>6</v>
@@ -2466,11 +2893,13 @@
       <c r="D37" s="2">
         <v>3</v>
       </c>
-      <c r="E37" s="2"/>
+      <c r="E37" s="4" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="14" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C38" s="2">
         <v>4</v>
@@ -2478,11 +2907,13 @@
       <c r="D38" s="2">
         <v>1</v>
       </c>
-      <c r="E38" s="2"/>
+      <c r="E38" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C39" s="2">
         <v>5</v>
@@ -2490,106 +2921,968 @@
       <c r="D39" s="2">
         <v>1</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="4" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
+      <c r="B42" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
     </row>
     <row r="43" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" s="15" t="s">
+      <c r="B43" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="D43" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E43" s="17" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>130</v>
+      <c r="B44" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C44" s="18">
+        <v>2</v>
+      </c>
+      <c r="D44" s="18">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>131</v>
+      <c r="B45" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="18">
+        <v>3</v>
+      </c>
+      <c r="D45" s="18">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>132</v>
+      <c r="B46" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="18">
+        <v>3</v>
+      </c>
+      <c r="D46" s="18">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>133</v>
+      <c r="B47" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="18">
+        <v>3</v>
+      </c>
+      <c r="D47" s="18">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="B48" s="18" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
+      <c r="C48" s="18">
+        <v>6</v>
+      </c>
+      <c r="D48" s="18">
+        <v>3</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="18" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+      <c r="C49" s="18">
+        <v>5</v>
+      </c>
+      <c r="D49" s="18">
+        <v>3</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50" s="18" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
+      <c r="C50" s="18">
+        <v>1</v>
+      </c>
+      <c r="D50" s="18">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="18">
+        <v>2</v>
+      </c>
+      <c r="D51" s="18">
+        <v>1</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="18">
+        <v>3</v>
+      </c>
+      <c r="D52" s="18">
+        <v>1</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="18" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
+      <c r="C53" s="18">
+        <v>3</v>
+      </c>
+      <c r="D53" s="18">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="18" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
+      <c r="C54" s="18">
+        <v>3</v>
+      </c>
+      <c r="D54" s="18">
+        <v>1</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="18" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
+      <c r="C55" s="18">
+        <v>6</v>
+      </c>
+      <c r="D55" s="18">
+        <v>3</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="18" t="s">
         <v>143</v>
       </c>
+      <c r="C56" s="18">
+        <v>5</v>
+      </c>
+      <c r="D56" s="18">
+        <v>3</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="18">
+        <v>1</v>
+      </c>
+      <c r="D57" s="18">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="19" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="20">
+        <v>2</v>
+      </c>
+      <c r="D58" s="20">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="19" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="20">
+        <v>7</v>
+      </c>
+      <c r="D59" s="20">
+        <v>2</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="C60" s="20">
+        <v>4</v>
+      </c>
+      <c r="D60" s="20">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="C61" s="20">
+        <v>5</v>
+      </c>
+      <c r="D61" s="20">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="C62" s="20">
+        <v>8</v>
+      </c>
+      <c r="D62" s="20">
+        <v>3</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="C63" s="20">
+        <v>5</v>
+      </c>
+      <c r="D63" s="20">
+        <v>3</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="20">
+        <v>1</v>
+      </c>
+      <c r="D64" s="20">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+    </row>
+    <row r="68" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="C68" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>154</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B67:E67"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E5:E11">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"Complexo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"Médio"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"Simples"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E39">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+      <formula>"Complexo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+      <formula>"Médio"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+      <formula>"Simples"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44:E64">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Complexo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Médio"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Simples"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:G25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5">
+        <v>7</v>
+      </c>
+      <c r="F4" s="5">
+        <f>D4*E4</f>
+        <v>49</v>
+      </c>
+      <c r="G4" s="24">
+        <f>SUM(F4:F6)</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" ref="F5:F18" si="0">D5*E5</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="25"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="26"/>
+      <c r="C6" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>15</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="26"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="4">
+        <v>15</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="G7" s="24">
+        <f t="shared" ref="G7" si="1">SUM(F7:F9)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="25"/>
+      <c r="C8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="4">
+        <v>4</v>
+      </c>
+      <c r="E8" s="5">
+        <v>4</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G8" s="25"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="26"/>
+      <c r="C9" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="4">
+        <v>4</v>
+      </c>
+      <c r="E9" s="5">
+        <v>6</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G9" s="26"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="4">
+        <v>17</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="G10" s="24">
+        <f t="shared" ref="G10" si="2">SUM(F10:F12)</f>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="25"/>
+      <c r="C11" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="4">
+        <v>4</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="26"/>
+      <c r="C12" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12" s="5">
+        <v>6</v>
+      </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="27" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="28">
+        <v>0</v>
+      </c>
+      <c r="E13" s="29">
+        <v>4</v>
+      </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="24">
+        <f t="shared" ref="G13" si="3">SUM(F13:F15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="30"/>
+      <c r="C14" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="28">
+        <v>0</v>
+      </c>
+      <c r="E14" s="29">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="25"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="31"/>
+      <c r="C15" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="28">
+        <v>0</v>
+      </c>
+      <c r="E15" s="29">
+        <v>7</v>
+      </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" s="28">
+        <v>0</v>
+      </c>
+      <c r="E16" s="29">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="24">
+        <f t="shared" ref="G16" si="4">SUM(F16:F18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="32"/>
+      <c r="C17" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="28">
+        <v>0</v>
+      </c>
+      <c r="E17" s="29">
+        <v>7</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="32"/>
+      <c r="C18" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="28">
+        <v>0</v>
+      </c>
+      <c r="E18" s="29">
+        <v>10</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="F19" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="34">
+        <f>SUM(G4:G18)</f>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="G16:G18"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="G13:G15"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C4:D18">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Complexo"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"Médio"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+      <formula>"Simples"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C2" s="22"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="C4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="C18" s="2">
+        <f>SUM(C4:C17)</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C20" s="38">
+        <f>0.65+(0.01 * C18)</f>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="38">
+        <f>(C20*PontosNãoAjustados!G19)</f>
+        <v>182.91</v>
+      </c>
+      <c r="D22" s="38">
+        <f>_xlfn.FLOOR.MATH(C22)</f>
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/FPA.xlsx
+++ b/FPA.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9195" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arquivos" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="194">
   <si>
     <t>ATRIBUTO</t>
   </si>
@@ -601,6 +601,15 @@
   </si>
   <si>
     <t>Total de Pontos Ajustados (FPA)</t>
+  </si>
+  <si>
+    <t>Input Editora</t>
+  </si>
+  <si>
+    <t>Efetuar Login</t>
+  </si>
+  <si>
+    <t>Tela de Help</t>
   </si>
 </sst>
 </file>
@@ -775,12 +784,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -793,34 +796,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -835,11 +814,71 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1238,7 +1277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H78"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G64" sqref="G64"/>
     </sheetView>
   </sheetViews>
@@ -1254,43 +1293,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="15"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="G4" s="10" t="s">
         <v>7</v>
       </c>
@@ -1383,43 +1422,43 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="15" t="s">
+      <c r="C12" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="10" t="s">
         <v>7</v>
       </c>
@@ -1574,43 +1613,43 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="29"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D25" s="15" t="s">
+      <c r="C25" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="15" t="s">
+      <c r="E25" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H25" s="15"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
       <c r="G26" s="10" t="s">
         <v>7</v>
       </c>
@@ -1661,43 +1700,43 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="15"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32" s="15" t="s">
+      <c r="C32" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="15" t="s">
+      <c r="E32" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H32" s="15"/>
+      <c r="H32" s="29"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
       <c r="G33" s="10" t="s">
         <v>7</v>
       </c>
@@ -1814,43 +1853,43 @@
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="29"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="29"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C43" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="15" t="s">
+      <c r="C43" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="15" t="s">
+      <c r="F43" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H43" s="15"/>
+      <c r="H43" s="29"/>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="29"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="29"/>
+      <c r="F44" s="29"/>
       <c r="G44" s="10" t="s">
         <v>7</v>
       </c>
@@ -1967,43 +2006,43 @@
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-      <c r="H53" s="15"/>
+      <c r="C53" s="29"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="29"/>
+      <c r="F53" s="29"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" s="15" t="s">
+      <c r="B54" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D54" s="15" t="s">
+      <c r="C54" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="15" t="s">
+      <c r="E54" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G54" s="15" t="s">
+      <c r="G54" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H54" s="15"/>
+      <c r="H54" s="29"/>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
+      <c r="B55" s="29"/>
+      <c r="C55" s="29"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="29"/>
+      <c r="F55" s="29"/>
       <c r="G55" s="10" t="s">
         <v>7</v>
       </c>
@@ -2202,43 +2241,43 @@
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" s="15" t="s">
+      <c r="B68" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-      <c r="H68" s="15"/>
+      <c r="C68" s="29"/>
+      <c r="D68" s="29"/>
+      <c r="E68" s="29"/>
+      <c r="F68" s="29"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="29"/>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" s="15" t="s">
+      <c r="B69" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C69" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="D69" s="15" t="s">
+      <c r="C69" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="E69" s="15" t="s">
+      <c r="E69" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="F69" s="15" t="s">
+      <c r="F69" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="G69" s="15" t="s">
+      <c r="G69" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H69" s="15"/>
+      <c r="H69" s="29"/>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
+      <c r="B70" s="29"/>
+      <c r="C70" s="29"/>
+      <c r="D70" s="29"/>
+      <c r="E70" s="29"/>
+      <c r="F70" s="29"/>
       <c r="G70" s="10" t="s">
         <v>7</v>
       </c>
@@ -2383,6 +2422,48 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B11:H11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="B24:H24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="B53:H53"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:H54"/>
     <mergeCell ref="B68:H68"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="C69:C70"/>
@@ -2390,48 +2471,6 @@
     <mergeCell ref="E69:E70"/>
     <mergeCell ref="F69:F70"/>
     <mergeCell ref="G69:H69"/>
-    <mergeCell ref="B53:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:H54"/>
-    <mergeCell ref="B42:H42"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B24:H24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="B11:H11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2440,10 +2479,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E69"/>
+  <dimension ref="B3:E71"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E48" activeCellId="3" sqref="E62 E59 E55 E48"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2455,24 +2494,24 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
     </row>
     <row r="4" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="15" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2582,24 +2621,24 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
     </row>
     <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E16" s="17" t="s">
+      <c r="E16" s="15" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2926,35 +2965,35 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16"/>
-      <c r="E42" s="16"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
     </row>
     <row r="43" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="17" t="s">
+      <c r="C43" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D43" s="17" t="s">
+      <c r="D43" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="15" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="16">
         <v>2</v>
       </c>
-      <c r="D44" s="18">
+      <c r="D44" s="16">
         <v>1</v>
       </c>
       <c r="E44" s="4" t="s">
@@ -2962,13 +3001,13 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C45" s="18">
+      <c r="C45" s="16">
         <v>3</v>
       </c>
-      <c r="D45" s="18">
+      <c r="D45" s="16">
         <v>1</v>
       </c>
       <c r="E45" s="4" t="s">
@@ -2976,13 +3015,13 @@
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="18">
+      <c r="C46" s="16">
         <v>3</v>
       </c>
-      <c r="D46" s="18">
+      <c r="D46" s="16">
         <v>1</v>
       </c>
       <c r="E46" s="4" t="s">
@@ -2990,13 +3029,13 @@
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C47" s="18">
+      <c r="C47" s="16">
         <v>3</v>
       </c>
-      <c r="D47" s="18">
+      <c r="D47" s="16">
         <v>1</v>
       </c>
       <c r="E47" s="4" t="s">
@@ -3004,13 +3043,13 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="18" t="s">
+      <c r="B48" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="18">
+      <c r="C48" s="16">
         <v>6</v>
       </c>
-      <c r="D48" s="18">
+      <c r="D48" s="16">
         <v>3</v>
       </c>
       <c r="E48" s="4" t="s">
@@ -3018,13 +3057,13 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="18" t="s">
+      <c r="B49" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="18">
+      <c r="C49" s="16">
         <v>5</v>
       </c>
-      <c r="D49" s="18">
+      <c r="D49" s="16">
         <v>3</v>
       </c>
       <c r="E49" s="4" t="s">
@@ -3032,13 +3071,13 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="18" t="s">
+      <c r="B50" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="18">
-        <v>1</v>
-      </c>
-      <c r="D50" s="18">
+      <c r="C50" s="16">
+        <v>1</v>
+      </c>
+      <c r="D50" s="16">
         <v>1</v>
       </c>
       <c r="E50" s="4" t="s">
@@ -3046,13 +3085,13 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="18" t="s">
+      <c r="B51" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C51" s="18">
+      <c r="C51" s="16">
         <v>2</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="16">
         <v>1</v>
       </c>
       <c r="E51" s="4" t="s">
@@ -3060,13 +3099,13 @@
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="18" t="s">
+      <c r="B52" s="16" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="18">
+      <c r="C52" s="16">
         <v>3</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D52" s="16">
         <v>1</v>
       </c>
       <c r="E52" s="4" t="s">
@@ -3074,13 +3113,13 @@
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="18" t="s">
+      <c r="B53" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="C53" s="18">
+      <c r="C53" s="16">
         <v>3</v>
       </c>
-      <c r="D53" s="18">
+      <c r="D53" s="16">
         <v>1</v>
       </c>
       <c r="E53" s="4" t="s">
@@ -3088,13 +3127,13 @@
       </c>
     </row>
     <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="18" t="s">
+      <c r="B54" s="16" t="s">
         <v>141</v>
       </c>
-      <c r="C54" s="18">
+      <c r="C54" s="16">
         <v>3</v>
       </c>
-      <c r="D54" s="18">
+      <c r="D54" s="16">
         <v>1</v>
       </c>
       <c r="E54" s="4" t="s">
@@ -3102,13 +3141,13 @@
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="18" t="s">
+      <c r="B55" s="16" t="s">
         <v>142</v>
       </c>
-      <c r="C55" s="18">
+      <c r="C55" s="16">
         <v>6</v>
       </c>
-      <c r="D55" s="18">
+      <c r="D55" s="16">
         <v>3</v>
       </c>
       <c r="E55" s="4" t="s">
@@ -3116,13 +3155,13 @@
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="18" t="s">
+      <c r="B56" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="C56" s="18">
+      <c r="C56" s="16">
         <v>5</v>
       </c>
-      <c r="D56" s="18">
+      <c r="D56" s="16">
         <v>3</v>
       </c>
       <c r="E56" s="4" t="s">
@@ -3130,13 +3169,13 @@
       </c>
     </row>
     <row r="57" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="18" t="s">
+      <c r="B57" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C57" s="18">
-        <v>1</v>
-      </c>
-      <c r="D57" s="18">
+      <c r="C57" s="16">
+        <v>1</v>
+      </c>
+      <c r="D57" s="16">
         <v>1</v>
       </c>
       <c r="E57" s="4" t="s">
@@ -3144,13 +3183,13 @@
       </c>
     </row>
     <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="17" t="s">
         <v>146</v>
       </c>
-      <c r="C58" s="20">
+      <c r="C58" s="18">
         <v>2</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D58" s="18">
         <v>1</v>
       </c>
       <c r="E58" s="4" t="s">
@@ -3158,13 +3197,13 @@
       </c>
     </row>
     <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="20">
+      <c r="C59" s="18">
         <v>7</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D59" s="18">
         <v>2</v>
       </c>
       <c r="E59" s="4" t="s">
@@ -3172,13 +3211,13 @@
       </c>
     </row>
     <row r="60" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C60" s="20">
+      <c r="C60" s="18">
         <v>4</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D60" s="18">
         <v>1</v>
       </c>
       <c r="E60" s="4" t="s">
@@ -3186,13 +3225,13 @@
       </c>
     </row>
     <row r="61" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C61" s="20">
+      <c r="C61" s="18">
         <v>5</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D61" s="18">
         <v>1</v>
       </c>
       <c r="E61" s="4" t="s">
@@ -3200,13 +3239,13 @@
       </c>
     </row>
     <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="C62" s="20">
+      <c r="C62" s="18">
         <v>8</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D62" s="18">
         <v>3</v>
       </c>
       <c r="E62" s="4" t="s">
@@ -3214,13 +3253,13 @@
       </c>
     </row>
     <row r="63" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="17" t="s">
         <v>150</v>
       </c>
-      <c r="C63" s="20">
+      <c r="C63" s="18">
         <v>5</v>
       </c>
-      <c r="D63" s="20">
+      <c r="D63" s="18">
         <v>3</v>
       </c>
       <c r="E63" s="4" t="s">
@@ -3228,52 +3267,94 @@
       </c>
     </row>
     <row r="64" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="17" t="s">
         <v>151</v>
       </c>
-      <c r="C64" s="20">
-        <v>1</v>
-      </c>
-      <c r="D64" s="20">
+      <c r="C64" s="18">
+        <v>1</v>
+      </c>
+      <c r="D64" s="18">
         <v>1</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>125</v>
       </c>
     </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" s="18">
+        <v>1</v>
+      </c>
+      <c r="D65" s="18">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="18">
+        <v>1</v>
+      </c>
+      <c r="D66" s="18">
+        <v>1</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
     <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="16" t="s">
+      <c r="B67" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="14">
+        <v>1</v>
+      </c>
+      <c r="D67" s="14">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="30" t="s">
         <v>153</v>
       </c>
-      <c r="C67" s="16"/>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-    </row>
-    <row r="68" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B68" s="17" t="s">
+      <c r="C69" s="30"/>
+      <c r="D69" s="30"/>
+      <c r="E69" s="30"/>
+    </row>
+    <row r="70" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="C68" s="17" t="s">
+      <c r="C70" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="D68" s="17" t="s">
+      <c r="D70" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="E68" s="17" t="s">
+      <c r="E70" s="15" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="21" t="s">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C71" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D71" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="E69" s="21" t="s">
+      <c r="E71" s="19" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3282,7 +3363,7 @@
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="B69:E69"/>
   </mergeCells>
   <conditionalFormatting sqref="E5:E11">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
@@ -3306,7 +3387,7 @@
       <formula>"Simples"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E44:E64">
+  <conditionalFormatting sqref="E44:E67">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"Complexo"</formula>
     </cfRule>
@@ -3326,8 +3407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3341,37 +3422,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="20" t="s">
         <v>159</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="20" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="31" t="s">
         <v>161</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -3387,13 +3468,13 @@
         <f>D4*E4</f>
         <v>49</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="31">
         <f>SUM(F4:F6)</f>
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="25"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="4" t="s">
         <v>165</v>
       </c>
@@ -3407,10 +3488,10 @@
         <f t="shared" ref="F5:F18" si="0">D5*E5</f>
         <v>0</v>
       </c>
-      <c r="G5" s="25"/>
+      <c r="G5" s="32"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="26"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="4" t="s">
         <v>166</v>
       </c>
@@ -3424,10 +3505,10 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="26"/>
+      <c r="G6" s="33"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="31" t="s">
         <v>162</v>
       </c>
       <c r="C7" s="4" t="s">
@@ -3443,13 +3524,13 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="31">
         <f t="shared" ref="G7" si="1">SUM(F7:F9)</f>
         <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="25"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="4" t="s">
         <v>165</v>
       </c>
@@ -3463,10 +3544,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G8" s="25"/>
+      <c r="G8" s="32"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="26"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="4" t="s">
         <v>166</v>
       </c>
@@ -3480,32 +3561,32 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="G9" s="26"/>
+      <c r="G9" s="33"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="31" t="s">
         <v>163</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>98</v>
       </c>
       <c r="D10" s="4">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="G10" s="24">
+        <v>60</v>
+      </c>
+      <c r="G10" s="31">
         <f t="shared" ref="G10" si="2">SUM(F10:F12)</f>
-        <v>67</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="25"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="4" t="s">
         <v>165</v>
       </c>
@@ -3519,10 +3600,10 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="32"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="26"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="4" t="s">
         <v>166</v>
       </c>
@@ -3536,134 +3617,134 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="26"/>
+      <c r="G12" s="33"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="35" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="28">
+      <c r="D13" s="21">
         <v>0</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="22">
         <v>4</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="31">
         <f t="shared" ref="G13" si="3">SUM(F13:F15)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="30"/>
-      <c r="C14" s="28" t="s">
+      <c r="B14" s="36"/>
+      <c r="C14" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D14" s="28">
+      <c r="D14" s="21">
         <v>0</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="22">
         <v>5</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="32"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="31"/>
-      <c r="C15" s="28" t="s">
+      <c r="B15" s="37"/>
+      <c r="C15" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="28">
+      <c r="D15" s="21">
         <v>0</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="22">
         <v>7</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="26"/>
+      <c r="G15" s="33"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="D16" s="28">
+      <c r="D16" s="21">
         <v>0</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="22">
         <v>5</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="31">
         <f t="shared" ref="G16" si="4">SUM(F16:F18)</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="32"/>
-      <c r="C17" s="28" t="s">
+      <c r="B17" s="38"/>
+      <c r="C17" s="21" t="s">
         <v>165</v>
       </c>
-      <c r="D17" s="28">
+      <c r="D17" s="21">
         <v>0</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="22">
         <v>7</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="25"/>
+      <c r="G17" s="32"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="32"/>
-      <c r="C18" s="28" t="s">
+      <c r="B18" s="38"/>
+      <c r="C18" s="21" t="s">
         <v>166</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="21">
         <v>0</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="22">
         <v>10</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G18" s="26"/>
+      <c r="G18" s="33"/>
     </row>
     <row r="19" spans="2:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="F19" s="33" t="s">
+      <c r="F19" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="24">
         <f>SUM(G4:G18)</f>
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3699,7 +3780,7 @@
   <dimension ref="B2:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3709,16 +3790,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C2" s="22"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="26" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3835,7 +3916,7 @@
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="27" t="s">
         <v>160</v>
       </c>
       <c r="C18" s="2">
@@ -3844,25 +3925,25 @@
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="38" t="s">
+      <c r="B20" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="C20" s="38">
+      <c r="C20" s="28">
         <f>0.65+(0.01 * C18)</f>
         <v>0.91</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="C22" s="38">
+      <c r="C22" s="28">
         <f>(C20*PontosNãoAjustados!G19)</f>
-        <v>182.91</v>
-      </c>
-      <c r="D22" s="38">
+        <v>191.1</v>
+      </c>
+      <c r="D22" s="28">
         <f>_xlfn.FLOOR.MATH(C22)</f>
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -3877,7 +3958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
